--- a/docs/PST1/PST1_08.11.2024_output.xlsx
+++ b/docs/PST1/PST1_08.11.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:N53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,1929 +505,2287 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731081647.2827113</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731081647.4541485</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731081647.2827113.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731081647.4541485.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>7140.5</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>7130.5</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-10</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731081647.6536925</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731081651.0488412</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731081647.6536925.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731081651.0488412.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>7128.5</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>7094.5</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-34</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.48</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731081651.0625029</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731081651.7379305</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731081651.0625029.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731081651.7379305.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>7094.5</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>7076</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>18.5</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731081653.2010171</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731081654.2239723</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731081653.2010171.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731081654.2239723.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>7114</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>7100.5</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>13.5</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731081657.453877</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731081659.1035895</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731081657.453877.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731081659.1035895.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>7092</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>7099</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-7</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731081660.9333396</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731081663.7274404</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731081660.9333396.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731081663.7274404.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>7101</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>7089</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>12</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731081663.7420816</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731081666.249942</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731081663.7420816.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731081666.249942.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>7089</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>7074</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>-15</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731081666.2654626</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731081666.2654626.png</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731081666.2654626.png</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>7074</v>
       </c>
-      <c r="J10" t="n">
-        <v>7074</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
+      <c r="L10" t="n">
+        <v>7075.5</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731081668.316694</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731081681.5398445</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731081668.316694.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731081681.5398445.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>475.65</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>474.35</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>1.299999999999955</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731081687.7281666</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731081687.7281666.png</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731081687.7281666.png</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>476.3</v>
       </c>
-      <c r="J12" t="n">
-        <v>476.3</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
+      <c r="L12" t="n">
+        <v>474.5</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-1.800000000000011</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.38</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731081690.2085936</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731081691.3761685</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731081690.2085936.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731081691.3761685.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>933</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>933.2</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.2000000000000455</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731081697.5534172</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731081699.2488766</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731081697.5534172.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731081699.2488766.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>928.4</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>930.8</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>2.399999999999977</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731081699.2634456</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731081699.4272027</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731081699.2634456.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731081699.4272027.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>930.8</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>932.6</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>-1.800000000000068</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731081702.4410102</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731081704.1342306</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731081702.4410102.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731081704.1342306.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>930.8</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>933.6</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>-2.800000000000068</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731081704.1887145</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731081704.2791483</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731081704.1887145.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731081704.2791483.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>934</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>935.4</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>-1.399999999999977</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731081705.0645182</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731081709.4999492</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731081705.0645182.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731081709.4999492.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>935.4</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>932.8</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>2.600000000000023</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731081709.5156033</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731081710.4468622</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731081709.5156033.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731081710.4468622.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>932.8</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>934</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>1.200000000000045</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731081710.8625274</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731081710.8625274.png</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731081710.8625274.png</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>932.6</v>
       </c>
-      <c r="J20" t="n">
-        <v>932.6</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
+      <c r="L20" t="n">
+        <v>930.8</v>
+      </c>
+      <c r="M20" t="n">
+        <v>-1.800000000000068</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-0.19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731081714.6201105</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731081716.4321468</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731081714.6201105.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731081716.4321468.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>130.28</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>130.22</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.06000000000000227</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731081720.1181173</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731081721.381963</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731081720.1181173.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731081721.381963.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>129.6</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>129.3</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.2999999999999829</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731081721.8446827</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731081722.1977565</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731081721.8446827.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731081722.1977565.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>129.6</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>129.4</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.1999999999999886</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731081725.4623759</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731081727.3633535</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731081725.4623759.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731081727.3633535.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>129.56</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>130.3</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>-0.7400000000000091</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-0.5700000000000001</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731081728.147775</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731081730.5933313</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731081728.147775.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731081730.5933313.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>130.4</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>129.78</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.6200000000000045</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.48</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731081730.6084108</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731081730.9576116</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731081730.6084108.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731081730.9576116.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>129.78</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>130.14</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>0.3599999999999852</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731081734.8032892</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731081736.1064312</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731081734.8032892.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731081736.1064312.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>130</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>129.9</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>-0.09999999999999432</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731081737.6906571</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731081741.393705</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731081737.6906571.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731081741.393705.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>37.88</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>37.725</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.1550000000000011</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.41</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731081742.5219755</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731081744.0937946</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731081742.5219755.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731081744.0937946.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>37.795</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>37.74</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.05499999999999972</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731081749.3300693</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731081751.085631</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731081749.3300693.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731081751.085631.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>37.835</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>38.015</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.1799999999999997</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.48</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731081751.1015913</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731081756.552193</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731081751.1015913.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731081756.552193.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>38.015</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>38.02</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>-0.005000000000002558</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731081756.5675187</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731081757.9229367</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731081756.5675187.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731081757.9229367.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>38.02</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>38.01</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>-0.01000000000000512</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731081762.331003</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731081763.1895852</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731081762.331003.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731081763.1895852.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>1184.4</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>1190</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>5.599999999999909</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.47</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731081771.1218402</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731081772.5361793</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731081771.1218402.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731081772.5361793.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>1182.8</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>1186</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>3.200000000000045</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731081774.4290667</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731081775.6441014</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731081774.4290667.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731081775.6441014.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>1188.4</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>1189.4</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731081778.035949</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731081779.3618162</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731081778.035949.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731081779.3618162.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>1190.4</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>1191</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.5999999999999091</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731081780.617673</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731081782.119192</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731081780.617673.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731081782.119192.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>1188.6</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>1189.2</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.6000000000001364</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731081787.8354175</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731081788.4543064</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731081787.8354175.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731081788.4543064.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>78.34</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>78.43000000000001</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.09000000000000341</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731081788.4689214</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731081788.9702077</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731081788.4689214.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731081788.9702077.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>78.43000000000001</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>77.94</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.4900000000000091</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.62</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731081789.4760675</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731081790.8010142</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731081789.4760675.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731081790.8010142.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>78.36</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>78.33</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.03000000000000114</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731081791.7075815</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731081793.2189357</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731081791.7075815.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731081793.2189357.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>78.47</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>78.47</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2420,580 +2793,688 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731081794.9854348</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731081797.5799284</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731081794.9854348.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731081797.5799284.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>78.27</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>78.58</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>-0.3100000000000023</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731081803.0706606</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731081804.56418</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731081803.0706606.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731081804.56418.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>78.70999999999999</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>78.69</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>-0.01999999999999602</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731081806.4531155</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731081809.6140213</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731081806.4531155.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731081809.6140213.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>103.29</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>103.12</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>-0.1700000000000017</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-0.16</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731081809.6228688</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731081810.434316</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731081809.6228688.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731081810.434316.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>103.12</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>102.86</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.2600000000000051</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731081814.0903795</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731081815.3899255</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731081814.0903795.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731081815.3899255.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>102.47</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>102.62</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>-0.1500000000000057</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731081819.161824</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731081820.9022138</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731081819.161824.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731081820.9022138.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>102.87</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>102.83</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.04000000000000625</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731081822.3402836</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>./test_images/MTLR1731081822.3402836.png</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
+          <t>./test_images/MTLR1731081822.3402836.png</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>103.04</v>
       </c>
-      <c r="J48" t="n">
-        <v>103.04</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0</v>
+      <c r="L48" t="n">
+        <v>102.98</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.06000000000000227</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731081830.468319</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731081833.7839558</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/MXI1731081830.468319.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/MXI1731081833.7839558.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>2759.1</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>2745.9</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>13.19999999999982</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.48</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731081833.7852612</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731081835.0023766</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/MXI1731081833.7852612.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/MXI1731081835.0023766.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>2745.9</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>2737.1</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>-8.800000000000182</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-0.32</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731081835.0203323</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731081836.5929668</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/MXI1731081835.0203323.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/MXI1731081836.5929668.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>2737.1</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>2736.5</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.5999999999999091</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731081837.2046556</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731081838.6216016</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/MXI1731081837.2046556.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/MXI1731081838.6216016.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>2741.85</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>2746.65</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>-4.800000000000182</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-0.18</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731081840.894392</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731081842.7021227</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/MXI1731081840.894392.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/MXI1731081842.7021227.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>2741.4</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>2751.3</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>-9.900000000000091</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-0.36</v>
       </c>
     </row>
   </sheetData>
@@ -3007,7 +3488,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3031,6 +3512,21 @@
           <t>count</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -3039,11 +3535,20 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-22</v>
+        <v>-23.5</v>
       </c>
       <c r="C2" t="n">
         <v>8</v>
       </c>
+      <c r="D2" t="n">
+        <v>-2.9375</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.33</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.04</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -3052,11 +3557,20 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3999999999999773</v>
+        <v>-1.400000000000091</v>
       </c>
       <c r="C3" t="n">
         <v>8</v>
       </c>
+      <c r="D3" t="n">
+        <v>-0.1750000000000114</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.02</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -3070,6 +3584,15 @@
       <c r="C4" t="n">
         <v>7</v>
       </c>
+      <c r="D4" t="n">
+        <v>0.09999999999999432</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5399999999999998</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -3083,6 +3606,15 @@
       <c r="C5" t="n">
         <v>6</v>
       </c>
+      <c r="D5" t="n">
+        <v>0.04666666666666922</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -3096,6 +3628,15 @@
       <c r="C6" t="n">
         <v>5</v>
       </c>
+      <c r="D6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -3109,6 +3650,15 @@
       <c r="C7" t="n">
         <v>5</v>
       </c>
+      <c r="D7" t="n">
+        <v>0.07499999999999858</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -3117,11 +3667,20 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.01999999999999602</v>
+        <v>0.04000000000000625</v>
       </c>
       <c r="C8" t="n">
         <v>5</v>
       </c>
+      <c r="D8" t="n">
+        <v>0.008000000000001251</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -3135,6 +3694,15 @@
       <c r="C9" t="n">
         <v>5</v>
       </c>
+      <c r="D9" t="n">
+        <v>-1.940000000000146</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.36</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -3143,11 +3711,20 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.299999999999955</v>
+        <v>-0.5000000000000568</v>
       </c>
       <c r="C10" t="n">
         <v>2</v>
       </c>
+      <c r="D10" t="n">
+        <v>-0.2500000000000284</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.05</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -3161,6 +3738,11 @@
       <c r="C11" t="n">
         <v>0</v>
       </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
